--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2332401.594719059</v>
+        <v>2330107.999262465</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>72.94942429078246</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>16.66804023415683</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>43.30112502764958</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>185.5217629586822</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.99473116157623</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>168.1158122680967</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>66.23125412673322</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1111,13 +1111,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>162.843465457249</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>128.2538703177663</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>52.3355164089006</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292598</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>42.67804628306391</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991681</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428122</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.1911789297521</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>99.97427419833636</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>9.146142788180832</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>194.9085394018857</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>31.8302520576399</v>
       </c>
     </row>
     <row r="32">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3193,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,16 +3238,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>211.147499124903</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187863</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>80.089713111587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>20.88994825141578</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.64725059288511</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1234.787393074839</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="C2" t="n">
-        <v>1234.787393074839</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>876.5216944680881</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>490.7334418698438</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>79.74753708023627</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>68.08319084492921</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>68.08319084492921</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1977.695380320764</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1624.92672505065</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.92672505065</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.787393074839</v>
+        <v>918.0161179218655</v>
       </c>
     </row>
     <row r="3">
@@ -4413,22 +4413,22 @@
         <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>1092.885047004312</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
         <v>157.1019332386097</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.86271359008</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1490.124203461141</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>485.6403455667598</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>485.6403455667598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3241.772759829801</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3035.795012214023</v>
       </c>
       <c r="V5" t="n">
-        <v>3155.791869823214</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="W5" t="n">
-        <v>3155.791869823214</v>
+        <v>2704.732124870452</v>
       </c>
       <c r="X5" t="n">
-        <v>2782.326111562134</v>
+        <v>2331.266366609372</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>431.4421061205821</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
         <v>66.51211643218342</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1224.739181610489</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>935.322011573528</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>770.8336626268118</v>
+        <v>652.2346852641123</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.0410834832817</v>
+        <v>431.4421061205821</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1685.375546116517</v>
+        <v>1308.370295943746</v>
       </c>
       <c r="C8" t="n">
-        <v>1316.413029176106</v>
+        <v>939.4077790033343</v>
       </c>
       <c r="D8" t="n">
-        <v>958.1473305693551</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>572.3590779711108</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>161.3731731815032</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180639</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228005</v>
@@ -4896,7 +4896,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1884.185410428832</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088492</v>
+        <v>1662.418794998358</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1373.315928124002</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1118.631439918115</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>829.2142698811541</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121639</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121639</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270438</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,40 +5288,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>779.6143379232836</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>961.2628027535234</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998268</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111709</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5832,22 +5832,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438164</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998423</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,25 +5969,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6181,16 +6181,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6443,40 +6443,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="32">
@@ -6692,25 +6692,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7138,7 +7138,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,61 +7160,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2526.197884723913</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708873</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.395944601127</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797191</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797191</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,25 +7546,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>445.6984928076085</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>298.8085453096982</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>157.0967141518962</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>114.3555089013348</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9887,13 +9887,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194267</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>37.39347442234265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>57.2291039219408</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>57.22910392194228</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>186.7544012944549</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,16 +25126,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>75.03697526434112</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>68.52575990662535</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>43.72409101823415</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>18.61858572568042</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651909</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>816295.7591651911</v>
+        <v>816295.759165191</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>816295.759165191</v>
+        <v>816295.7591651911</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675045</v>
@@ -26326,34 +26326,34 @@
         <v>605359.9497675042</v>
       </c>
       <c r="G2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.9497675042</v>
       </c>
       <c r="O2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>49110.09270605445</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>137930.4104072219</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312018</v>
+        <v>89134.17909312017</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312027</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768899</v>
+        <v>9947.144321768932</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768932</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768901</v>
+        <v>9947.144321768905</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768921</v>
       </c>
       <c r="L4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768857</v>
+        <v>9947.144321768912</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768879</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768923</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-729838.639024774</v>
+        <v>-729838.6390247738</v>
       </c>
       <c r="C6" t="n">
-        <v>215274.4661315932</v>
+        <v>215274.466131593</v>
       </c>
       <c r="D6" t="n">
-        <v>418713.2077436992</v>
+        <v>418713.2077436993</v>
       </c>
       <c r="E6" t="n">
-        <v>168877.8138144731</v>
+        <v>168843.0758890371</v>
       </c>
       <c r="F6" t="n">
-        <v>494290.275621828</v>
+        <v>494255.5376963928</v>
       </c>
       <c r="G6" t="n">
-        <v>494290.2756218281</v>
+        <v>494255.5376963925</v>
       </c>
       <c r="H6" t="n">
-        <v>494290.2756218281</v>
+        <v>494255.5376963923</v>
       </c>
       <c r="I6" t="n">
-        <v>494290.2756218287</v>
+        <v>494255.5376963927</v>
       </c>
       <c r="J6" t="n">
-        <v>326685.0978118458</v>
+        <v>326650.3598864101</v>
       </c>
       <c r="K6" t="n">
-        <v>445180.1829157737</v>
+        <v>445145.4449903381</v>
       </c>
       <c r="L6" t="n">
-        <v>494290.2756218283</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="M6" t="n">
-        <v>409235.2476863163</v>
+        <v>409200.5097608806</v>
       </c>
       <c r="N6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963924</v>
       </c>
       <c r="O6" t="n">
-        <v>494290.2756218283</v>
+        <v>494255.5376963926</v>
       </c>
       <c r="P6" t="n">
-        <v>494290.2756218282</v>
+        <v>494255.5376963925</v>
       </c>
     </row>
   </sheetData>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,13 +26820,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>190.8166233022538</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>292.3234674802251</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>49.04187243831363</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>242.9260290935511</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>40.18789243035491</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>26.19303062659961</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>159.6364462020382</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>101.0155669718946</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27831,13 +27831,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>62.86618993178811</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>226.4291713029167</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>358.5862092445528</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -28059,13 +28059,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>147.090979048378</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356961</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32078,37 +32078,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>362.180468412921</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>653.3850396373771</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622654</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214701</v>
+        <v>448.9178583921318</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>508.374771698973</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111251</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,10 +33892,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663297</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>172.8142548092792</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,22 +34208,22 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34232,7 +34232,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>412.0358695391851</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899066</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>510.7887951929326</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.133804440247</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992802</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071399</v>
+        <v>314.9434509778015</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>369.8203919190988</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>55.9645526312509</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,10 +37540,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396434</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>27.13475084531527</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -37880,7 +37880,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
